--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學乙(下).xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學乙(下).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 接著是數學數學乙(下) skill_curricul" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 接著是數學數學乙(下) skill_curricul" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -154,17 +162,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,36 +189,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -392,20 +415,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -442,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -454,16 +482,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -471,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -483,16 +511,16 @@
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -500,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -512,16 +540,16 @@
         <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -529,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -541,16 +569,16 @@
         <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -558,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -570,16 +598,16 @@
         <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -587,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -599,16 +627,16 @@
         <v>22</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -616,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -628,16 +656,16 @@
         <v>22</v>
       </c>
       <c r="G8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -645,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -657,16 +685,16 @@
         <v>22</v>
       </c>
       <c r="G9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -674,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -686,16 +714,16 @@
         <v>27</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -703,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -715,16 +743,16 @@
         <v>29</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -732,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -744,16 +772,16 @@
         <v>29</v>
       </c>
       <c r="G12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -761,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -773,16 +801,16 @@
         <v>33</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -790,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -802,16 +830,16 @@
         <v>33</v>
       </c>
       <c r="G14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -819,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -831,16 +859,16 @@
         <v>36</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -848,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -860,16 +888,16 @@
         <v>36</v>
       </c>
       <c r="G16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -877,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -889,16 +917,16 @@
         <v>39</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -906,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -918,16 +946,16 @@
         <v>42</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -935,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -947,16 +975,16 @@
         <v>42</v>
       </c>
       <c r="G19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -964,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -976,16 +1004,18 @@
         <v>45</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>